--- a/biology/Microbiologie/Spiroplasma_citri/Spiroplasma_citri.xlsx
+++ b/biology/Microbiologie/Spiroplasma_citri/Spiroplasma_citri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spiroplasma citri est une espèce de spiroplasmes de la famille des Spiroplasmataceae. 
-Cette bactérie de la classe des Mollicutes,, sans paroi cellulaire, à la morphologie hélicoïdale caractéristique, vit dans les tubes criblés du phloème. Elle est l'agent pathogène responsable du stubborn des agrumes. Cette maladie, qui sévit dans des régions tempérées chaudes, notamment aux États-Unis et dans le bassin méditerranéen, provoque une baisse des rendements, avec des fruits anormalement petits et mal-formés. Elle affecte tous les agrumes et particulièrement les orangers, mais peut aussi infecter de nombreuses espèces de plantes herbacées, souvent sans symptômes apparents. Elle est transmise par diverses espèces de cicadelles.  
+Cette bactérie de la classe des Mollicutes sans paroi cellulaire, à la morphologie hélicoïdale caractéristique, vit dans les tubes criblés du phloème. Elle est l'agent pathogène responsable du stubborn des agrumes. Cette maladie, qui sévit dans des régions tempérées chaudes, notamment aux États-Unis et dans le bassin méditerranéen, provoque une baisse des rendements, avec des fruits anormalement petits et mal-formés. Elle affecte tous les agrumes et particulièrement les orangers, mais peut aussi infecter de nombreuses espèces de plantes herbacées, souvent sans symptômes apparents. Elle est transmise par diverses espèces de cicadelles.  
 </t>
         </is>
       </c>
